--- a/2022 NFL Predictions.xlsx
+++ b/2022 NFL Predictions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelniemi/Desktop/Koulu/Vanhat/ML/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joelniemi/Documents/NFL ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE6325A-D6A9-2B47-9EC9-E5C4F2C506E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FCA63-DB6F-C843-8DCC-8783BE20F8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{9552F8E7-DE3A-2148-87D7-6881CB056005}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="25600" windowHeight="16000" xr2:uid="{9552F8E7-DE3A-2148-87D7-6881CB056005}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Team</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Linear Wins</t>
   </si>
   <si>
-    <t>Neural Wins</t>
-  </si>
-  <si>
     <t>Arizona Cardinals</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>Linear Pred</t>
   </si>
   <si>
-    <t>Neural Pred</t>
-  </si>
-  <si>
     <t>Real Wins</t>
   </si>
   <si>
@@ -176,13 +170,25 @@
     <t>Result</t>
   </si>
   <si>
-    <t>Linear Profit (10€)</t>
-  </si>
-  <si>
-    <t>Linear return %</t>
-  </si>
-  <si>
-    <t>=(M36+COUNTA(M4:M35*10))/COUNTA(M4:M35*10)</t>
+    <t>Linear Profit (100€)</t>
+  </si>
+  <si>
+    <t>ANN Profit (100€)</t>
+  </si>
+  <si>
+    <t>ANN Res</t>
+  </si>
+  <si>
+    <t>ANN Pred</t>
+  </si>
+  <si>
+    <t>ANN Wins</t>
+  </si>
+  <si>
+    <t>Linear Return-%</t>
+  </si>
+  <si>
+    <t>ANN Return-%</t>
   </si>
 </sst>
 </file>
@@ -190,9 +196,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-[$€-2]\ * ###0.00_-;\-[$€-2]\ * ###0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,6 +230,29 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF191616"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF191616"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color rgb="FF191616"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -261,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -444,11 +473,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -471,14 +531,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,26 +880,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83191DC-9A51-8B47-861F-9ECFF05B90B0}">
   <dimension ref="B2:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="2:13" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="2:15" ht="20" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -843,39 +908,45 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>8.3000000000000007</v>
@@ -900,7 +971,7 @@
         <f>IF(D4&gt;E4,"Over","Under")</f>
         <v>Over</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4">
         <v>4</v>
       </c>
       <c r="K4" t="str">
@@ -912,13 +983,21 @@
         <v>-115</v>
       </c>
       <c r="M4" s="18">
-        <f>IF(L4&lt;0,-1000/L4,IF(L4&gt;=100,1000/L4,IF(L4=1,0,IF(L4=0,-10,"ERROR"))))</f>
-        <v>8.695652173913043</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <f>IF(L4&lt;0,-10000/L4,IF(L4&gt;=100,10000/L4,IF(L4=1,0,IF(L4=0,-100,"ERROR"))))</f>
+        <v>86.956521739130437</v>
+      </c>
+      <c r="N4">
+        <f>IF(AND(K4=I4,K4="Under"),G4,IF(AND(K4=I4,K4="Over"),F4,IF(K4="Push",1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <f>IF(N4&lt;0,-10000/N4,IF(N4&gt;=100,10000/N4,IF(N4=1,0,IF(N4=0,-100,"ERROR"))))</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
         <v>5.0999999999999996</v>
@@ -943,25 +1022,33 @@
         <f t="shared" ref="I5:I35" si="1">IF(D5&gt;E5,"Over","Under")</f>
         <v>Under</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5">
         <v>7</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K36" si="2">IF(J5=E5,"Push",IF(J5&gt;E5,"Over","Under"))</f>
+        <f t="shared" ref="K5:K35" si="2">IF(J5=E5,"Push",IF(J5&gt;E5,"Over","Under"))</f>
         <v>Over</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L36" si="3">IF(AND(K5=H5,K5="Under"),G5,IF(AND(K5=H5,K5="Over"),F5,IF(K5="Push",1,0)))</f>
+        <f t="shared" ref="L5:L35" si="3">IF(AND(K5=H5,K5="Under"),G5,IF(AND(K5=H5,K5="Over"),F5,IF(K5="Push",1,0)))</f>
         <v>130</v>
       </c>
       <c r="M5" s="18">
-        <f t="shared" ref="M5:M36" si="4">IF(L5&lt;0,-1000/L5,IF(L5&gt;=100,1000/L5,IF(L5=1,0,IF(L5=0,-10,"ERROR"))))</f>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+        <f t="shared" ref="M5:M35" si="4">IF(L5&lt;0,-10000/L5,IF(L5&gt;=100,10000/L5,IF(L5=1,0,IF(L5=0,-100,"ERROR"))))</f>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N35" si="5">IF(AND(K5=I5,K5="Under"),G5,IF(AND(K5=I5,K5="Over"),F5,IF(K5="Push",1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <f t="shared" ref="O5:O35" si="6">IF(N5&lt;0,-10000/N5,IF(N5&gt;=100,10000/N5,IF(N5=1,0,IF(N5=0,-100,"ERROR"))))</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>11.2</v>
@@ -986,7 +1073,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6">
         <v>10</v>
       </c>
       <c r="K6" t="str">
@@ -999,12 +1086,20 @@
       </c>
       <c r="M6" s="18">
         <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+        <v>62.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>-160</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
         <v>11.6</v>
@@ -1029,7 +1124,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7">
         <v>13</v>
       </c>
       <c r="K7" t="str">
@@ -1042,12 +1137,20 @@
       </c>
       <c r="M7" s="18">
         <f t="shared" si="4"/>
-        <v>7.1428571428571432</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>71.428571428571431</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>-140</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" si="6"/>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1">
         <v>7.5</v>
@@ -1072,7 +1175,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="str">
@@ -1085,12 +1188,20 @@
       </c>
       <c r="M8" s="18">
         <f t="shared" si="4"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>-110</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="6"/>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="1">
         <v>7.4</v>
@@ -1115,7 +1226,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9">
         <v>3</v>
       </c>
       <c r="K9" t="str">
@@ -1128,12 +1239,20 @@
       </c>
       <c r="M9" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>9.6</v>
@@ -1158,7 +1277,7 @@
         <f t="shared" si="1"/>
         <v>Under</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10">
         <v>12</v>
       </c>
       <c r="K10" t="str">
@@ -1171,12 +1290,20 @@
       </c>
       <c r="M10" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>9.1</v>
@@ -1201,7 +1328,7 @@
         <f t="shared" si="1"/>
         <v>Under</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="str">
@@ -1214,12 +1341,20 @@
       </c>
       <c r="M11" s="18">
         <f t="shared" si="4"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>-110</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="6"/>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <v>11.3</v>
@@ -1244,7 +1379,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12">
         <v>12</v>
       </c>
       <c r="K12" t="str">
@@ -1257,12 +1392,20 @@
       </c>
       <c r="M12" s="18">
         <f t="shared" si="4"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>-110</v>
+      </c>
+      <c r="O12" s="18">
+        <f t="shared" si="6"/>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1">
         <v>10.3</v>
@@ -1287,7 +1430,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13">
         <v>5</v>
       </c>
       <c r="K13" t="str">
@@ -1300,12 +1443,20 @@
       </c>
       <c r="M13" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>7.6</v>
@@ -1330,7 +1481,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14">
         <v>9</v>
       </c>
       <c r="K14" t="str">
@@ -1343,12 +1494,20 @@
       </c>
       <c r="M14" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="5"/>
+        <v>-125</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>11.4</v>
@@ -1373,7 +1532,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15">
         <v>8</v>
       </c>
       <c r="K15" t="str">
@@ -1386,12 +1545,20 @@
       </c>
       <c r="M15" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>4.8</v>
@@ -1416,7 +1583,7 @@
         <f t="shared" si="1"/>
         <v>Under</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16">
         <v>3</v>
       </c>
       <c r="K16" t="str">
@@ -1429,12 +1596,20 @@
       </c>
       <c r="M16" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="6"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>10.3</v>
@@ -1459,7 +1634,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17">
         <v>4</v>
       </c>
       <c r="K17" t="str">
@@ -1472,12 +1647,20 @@
       </c>
       <c r="M17" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>7.2</v>
@@ -1502,7 +1685,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18">
         <v>9</v>
       </c>
       <c r="K18" t="str">
@@ -1515,12 +1698,20 @@
       </c>
       <c r="M18" s="18">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O18" s="18">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1">
         <v>10</v>
@@ -1545,7 +1736,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19">
         <v>14</v>
       </c>
       <c r="K19" t="str">
@@ -1558,12 +1749,20 @@
       </c>
       <c r="M19" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" si="6"/>
+        <v>83.333333333333329</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1">
         <v>9.9</v>
@@ -1588,7 +1787,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20">
         <v>6</v>
       </c>
       <c r="K20" t="str">
@@ -1601,12 +1800,20 @@
       </c>
       <c r="M20" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B21" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1">
         <v>10.6</v>
@@ -1631,7 +1838,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21">
         <v>10</v>
       </c>
       <c r="K21" t="str">
@@ -1646,10 +1853,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
         <v>8.6999999999999993</v>
@@ -1674,7 +1889,7 @@
         <f t="shared" si="1"/>
         <v>Under</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22">
         <v>5</v>
       </c>
       <c r="K22" t="str">
@@ -1687,12 +1902,20 @@
       </c>
       <c r="M22" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>-125</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>8.9</v>
@@ -1717,7 +1940,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23">
         <v>9</v>
       </c>
       <c r="K23" t="str">
@@ -1732,10 +1955,18 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1">
         <v>10.3</v>
@@ -1760,7 +1991,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24">
         <v>13</v>
       </c>
       <c r="K24" t="str">
@@ -1773,12 +2004,20 @@
       </c>
       <c r="M24" s="18">
         <f t="shared" si="4"/>
-        <v>7.6923076923076925</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+        <v>76.92307692307692</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>-130</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" si="6"/>
+        <v>76.92307692307692</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1">
         <v>8.4</v>
@@ -1803,7 +2042,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25">
         <v>8</v>
       </c>
       <c r="K25" t="str">
@@ -1816,12 +2055,20 @@
       </c>
       <c r="M25" s="18">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1">
         <v>9.1999999999999993</v>
@@ -1846,7 +2093,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26">
         <v>7</v>
       </c>
       <c r="K26" t="str">
@@ -1859,12 +2106,20 @@
       </c>
       <c r="M26" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B27" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
         <v>8.8000000000000007</v>
@@ -1889,7 +2144,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27">
         <v>9</v>
       </c>
       <c r="K27" t="str">
@@ -1902,12 +2157,20 @@
       </c>
       <c r="M27" s="18">
         <f t="shared" si="4"/>
-        <v>9.0909090909090917</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+        <v>90.909090909090907</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>-110</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" si="6"/>
+        <v>90.909090909090907</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1">
         <v>5.7</v>
@@ -1932,7 +2195,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28">
         <v>7</v>
       </c>
       <c r="K28" t="str">
@@ -1945,12 +2208,20 @@
       </c>
       <c r="M28" s="18">
         <f t="shared" si="4"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+        <v>62.5</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>-160</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" si="6"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1">
         <v>11</v>
@@ -1975,7 +2246,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29">
         <v>14</v>
       </c>
       <c r="K29" t="str">
@@ -1988,12 +2259,20 @@
       </c>
       <c r="M29" s="18">
         <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>-150</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="1">
         <v>7.6</v>
@@ -2018,7 +2297,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30">
         <v>9</v>
       </c>
       <c r="K30" t="str">
@@ -2031,12 +2310,20 @@
       </c>
       <c r="M30" s="18">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="1">
         <v>10.1</v>
@@ -2061,7 +2348,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31">
         <v>13</v>
       </c>
       <c r="K31" t="str">
@@ -2074,12 +2361,20 @@
       </c>
       <c r="M31" s="18">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O31" s="18">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="1">
         <v>5.9</v>
@@ -2104,7 +2399,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32">
         <v>9</v>
       </c>
       <c r="K32" t="str">
@@ -2117,12 +2412,20 @@
       </c>
       <c r="M32" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>80</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>-125</v>
+      </c>
+      <c r="O32" s="18">
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B33" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="1">
         <v>11.9</v>
@@ -2147,7 +2450,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33">
         <v>8</v>
       </c>
       <c r="K33" t="str">
@@ -2160,12 +2463,20 @@
       </c>
       <c r="M33" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
+        <v>-100</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="1">
         <v>9.6999999999999993</v>
@@ -2190,7 +2501,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34">
         <v>7</v>
       </c>
       <c r="K34" t="str">
@@ -2203,12 +2514,20 @@
       </c>
       <c r="M34" s="18">
         <f t="shared" si="4"/>
-        <v>-10</v>
+        <v>-100</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <f t="shared" si="6"/>
+        <v>-100</v>
       </c>
     </row>
     <row r="35" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="11">
         <v>8.9</v>
@@ -2233,7 +2552,7 @@
         <f t="shared" si="1"/>
         <v>Over</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35">
         <v>8</v>
       </c>
       <c r="K35" t="str">
@@ -2244,53 +2563,70 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M35" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="2:15" ht="25" x14ac:dyDescent="0.25">
+      <c r="M35" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>39</v>
-      </c>
-      <c r="M36" s="21">
+        <v>38</v>
+      </c>
+      <c r="M36" s="19">
         <f>SUM(M4:M35)</f>
-        <v>40.75342773168861</v>
+        <v>407.53427731688589</v>
       </c>
       <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="2:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
+      <c r="O36" s="19">
+        <f>SUM(O4:O35)</f>
+        <v>210.32134532134529</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" s="14"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>47</v>
+    <row r="38" spans="2:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="23">
+        <f>(3200+M36)/3200</f>
+        <v>1.1273544616615268</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
+    <row r="39" spans="2:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="25">
+        <f>(3200+O36)/3200</f>
+        <v>1.0657254204129203</v>
+      </c>
       <c r="D39" s="14"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="25" x14ac:dyDescent="0.25">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="14"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -2529,7 +2865,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H4:I36 J4:J35">
+  <conditionalFormatting sqref="J4:J35 H4:I36">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Under">
       <formula>NOT(ISERROR(SEARCH("Under",H4)))</formula>
     </cfRule>
